--- a/natmiOut/OldD7/LR-pairs_lrc2p/Col18a1-Kdr.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Col18a1-Kdr.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.35916716340517</v>
+        <v>11.122774</v>
       </c>
       <c r="H2">
-        <v>5.35916716340517</v>
+        <v>33.368322</v>
       </c>
       <c r="I2">
-        <v>0.1364653469730998</v>
+        <v>0.2449652610853511</v>
       </c>
       <c r="J2">
-        <v>0.1364653469730998</v>
+        <v>0.2449652610853511</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>149.459823346726</v>
+        <v>161.7750676666667</v>
       </c>
       <c r="N2">
-        <v>149.459823346726</v>
+        <v>485.325203</v>
       </c>
       <c r="O2">
-        <v>0.9832534961815145</v>
+        <v>0.9790864123038654</v>
       </c>
       <c r="P2">
-        <v>0.9832534961815145</v>
+        <v>0.9790864123038654</v>
       </c>
       <c r="Q2">
-        <v>800.9801775281114</v>
+        <v>1799.387516491041</v>
       </c>
       <c r="R2">
-        <v>800.9801775281114</v>
+        <v>16194.48764841936</v>
       </c>
       <c r="S2">
-        <v>0.1341800295189238</v>
+        <v>0.2398421586151361</v>
       </c>
       <c r="T2">
-        <v>0.1341800295189238</v>
+        <v>0.2398421586151361</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.35916716340517</v>
+        <v>11.122774</v>
       </c>
       <c r="H3">
-        <v>5.35916716340517</v>
+        <v>33.368322</v>
       </c>
       <c r="I3">
-        <v>0.1364653469730998</v>
+        <v>0.2449652610853511</v>
       </c>
       <c r="J3">
-        <v>0.1364653469730998</v>
+        <v>0.2449652610853511</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.626353034851524</v>
+        <v>0.67894</v>
       </c>
       <c r="N3">
-        <v>0.626353034851524</v>
+        <v>2.03682</v>
       </c>
       <c r="O3">
-        <v>0.004120597747081131</v>
+        <v>0.004109044356199978</v>
       </c>
       <c r="P3">
-        <v>0.004120597747081131</v>
+        <v>0.004109044356199979</v>
       </c>
       <c r="Q3">
-        <v>3.356730617075462</v>
+        <v>7.551696179559999</v>
       </c>
       <c r="R3">
-        <v>3.356730617075462</v>
+        <v>67.96526561604</v>
       </c>
       <c r="S3">
-        <v>0.0005623188012919998</v>
+        <v>0.001006573123527816</v>
       </c>
       <c r="T3">
-        <v>0.0005623188012919998</v>
+        <v>0.001006573123527816</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.35916716340517</v>
+        <v>11.122774</v>
       </c>
       <c r="H4">
-        <v>5.35916716340517</v>
+        <v>33.368322</v>
       </c>
       <c r="I4">
-        <v>0.1364653469730998</v>
+        <v>0.2449652610853511</v>
       </c>
       <c r="J4">
-        <v>0.1364653469730998</v>
+        <v>0.2449652610853511</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.46760260914225</v>
+        <v>1.763201333333333</v>
       </c>
       <c r="N4">
-        <v>1.46760260914225</v>
+        <v>5.289604</v>
       </c>
       <c r="O4">
-        <v>0.009654938458589045</v>
+        <v>0.01067115280816804</v>
       </c>
       <c r="P4">
-        <v>0.009654938458589045</v>
+        <v>0.01067115280816804</v>
       </c>
       <c r="Q4">
-        <v>7.865127711842898</v>
+        <v>19.61168994716533</v>
       </c>
       <c r="R4">
-        <v>7.865127711842898</v>
+        <v>176.505209524488</v>
       </c>
       <c r="S4">
-        <v>0.001317564526755279</v>
+        <v>0.002614061733734562</v>
       </c>
       <c r="T4">
-        <v>0.001317564526755279</v>
+        <v>0.002614061733734562</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.35916716340517</v>
+        <v>11.122774</v>
       </c>
       <c r="H5">
-        <v>5.35916716340517</v>
+        <v>33.368322</v>
       </c>
       <c r="I5">
-        <v>0.1364653469730998</v>
+        <v>0.2449652610853511</v>
       </c>
       <c r="J5">
-        <v>0.1364653469730998</v>
+        <v>0.2449652610853511</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.451603067067319</v>
+        <v>1.013424</v>
       </c>
       <c r="N5">
-        <v>0.451603067067319</v>
+        <v>3.040272</v>
       </c>
       <c r="O5">
-        <v>0.002970967612815416</v>
+        <v>0.006133390531766587</v>
       </c>
       <c r="P5">
-        <v>0.002970967612815416</v>
+        <v>0.006133390531766588</v>
       </c>
       <c r="Q5">
-        <v>2.420216327920238</v>
+        <v>11.272086118176</v>
       </c>
       <c r="R5">
-        <v>2.420216327920238</v>
+        <v>101.448775063584</v>
       </c>
       <c r="S5">
-        <v>0.0004054341261286977</v>
+        <v>0.001502467612952622</v>
       </c>
       <c r="T5">
-        <v>0.0004054341261286977</v>
+        <v>0.001502467612952623</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>18.2139076492193</v>
+        <v>18.220714</v>
       </c>
       <c r="H6">
-        <v>18.2139076492193</v>
+        <v>54.662142</v>
       </c>
       <c r="I6">
-        <v>0.4637972937398354</v>
+        <v>0.4012885600454987</v>
       </c>
       <c r="J6">
-        <v>0.4637972937398354</v>
+        <v>0.4012885600454988</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>149.459823346726</v>
+        <v>161.7750676666667</v>
       </c>
       <c r="N6">
-        <v>149.459823346726</v>
+        <v>485.325203</v>
       </c>
       <c r="O6">
-        <v>0.9832534961815145</v>
+        <v>0.9790864123038654</v>
       </c>
       <c r="P6">
-        <v>0.9832534961815145</v>
+        <v>0.9790864123038654</v>
       </c>
       <c r="Q6">
-        <v>2722.247419705898</v>
+        <v>2947.657240284981</v>
       </c>
       <c r="R6">
-        <v>2722.247419705898</v>
+        <v>26528.91516256483</v>
       </c>
       <c r="S6">
-        <v>0.456030310589218</v>
+        <v>0.3928961765535316</v>
       </c>
       <c r="T6">
-        <v>0.456030310589218</v>
+        <v>0.3928961765535317</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>18.2139076492193</v>
+        <v>18.220714</v>
       </c>
       <c r="H7">
-        <v>18.2139076492193</v>
+        <v>54.662142</v>
       </c>
       <c r="I7">
-        <v>0.4637972937398354</v>
+        <v>0.4012885600454987</v>
       </c>
       <c r="J7">
-        <v>0.4637972937398354</v>
+        <v>0.4012885600454988</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.626353034851524</v>
+        <v>0.67894</v>
       </c>
       <c r="N7">
-        <v>0.626353034851524</v>
+        <v>2.03682</v>
       </c>
       <c r="O7">
-        <v>0.004120597747081131</v>
+        <v>0.004109044356199978</v>
       </c>
       <c r="P7">
-        <v>0.004120597747081131</v>
+        <v>0.004109044356199979</v>
       </c>
       <c r="Q7">
-        <v>11.4083363325939</v>
+        <v>12.37077156316</v>
       </c>
       <c r="R7">
-        <v>11.4083363325939</v>
+        <v>111.33694406844</v>
       </c>
       <c r="S7">
-        <v>0.001911122083686691</v>
+        <v>0.001648912492862573</v>
       </c>
       <c r="T7">
-        <v>0.001911122083686691</v>
+        <v>0.001648912492862573</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>18.2139076492193</v>
+        <v>18.220714</v>
       </c>
       <c r="H8">
-        <v>18.2139076492193</v>
+        <v>54.662142</v>
       </c>
       <c r="I8">
-        <v>0.4637972937398354</v>
+        <v>0.4012885600454987</v>
       </c>
       <c r="J8">
-        <v>0.4637972937398354</v>
+        <v>0.4012885600454988</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.46760260914225</v>
+        <v>1.763201333333333</v>
       </c>
       <c r="N8">
-        <v>1.46760260914225</v>
+        <v>5.289604</v>
       </c>
       <c r="O8">
-        <v>0.009654938458589045</v>
+        <v>0.01067115280816804</v>
       </c>
       <c r="P8">
-        <v>0.009654938458589045</v>
+        <v>0.01067115280816804</v>
       </c>
       <c r="Q8">
-        <v>26.73077838867023</v>
+        <v>32.12678721908533</v>
       </c>
       <c r="R8">
-        <v>26.73077838867023</v>
+        <v>289.141084971768</v>
       </c>
       <c r="S8">
-        <v>0.004477934328318257</v>
+        <v>0.004282211544415234</v>
       </c>
       <c r="T8">
-        <v>0.004477934328318257</v>
+        <v>0.004282211544415234</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>18.2139076492193</v>
+        <v>18.220714</v>
       </c>
       <c r="H9">
-        <v>18.2139076492193</v>
+        <v>54.662142</v>
       </c>
       <c r="I9">
-        <v>0.4637972937398354</v>
+        <v>0.4012885600454987</v>
       </c>
       <c r="J9">
-        <v>0.4637972937398354</v>
+        <v>0.4012885600454988</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.451603067067319</v>
+        <v>1.013424</v>
       </c>
       <c r="N9">
-        <v>0.451603067067319</v>
+        <v>3.040272</v>
       </c>
       <c r="O9">
-        <v>0.002970967612815416</v>
+        <v>0.006133390531766587</v>
       </c>
       <c r="P9">
-        <v>0.002970967612815416</v>
+        <v>0.006133390531766588</v>
       </c>
       <c r="Q9">
-        <v>8.225456557668339</v>
+        <v>18.465308864736</v>
       </c>
       <c r="R9">
-        <v>8.225456557668339</v>
+        <v>166.187779782624</v>
       </c>
       <c r="S9">
-        <v>0.001377926738612489</v>
+        <v>0.00246125945468931</v>
       </c>
       <c r="T9">
-        <v>0.001377926738612489</v>
+        <v>0.00246125945468931</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.0896798937788435</v>
+        <v>0.1189986666666667</v>
       </c>
       <c r="H10">
-        <v>0.0896798937788435</v>
+        <v>0.356996</v>
       </c>
       <c r="I10">
-        <v>0.00228360068792192</v>
+        <v>0.002620797603979787</v>
       </c>
       <c r="J10">
-        <v>0.00228360068792192</v>
+        <v>0.002620797603979787</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>149.459823346726</v>
+        <v>161.7750676666667</v>
       </c>
       <c r="N10">
-        <v>149.459823346726</v>
+        <v>485.325203</v>
       </c>
       <c r="O10">
-        <v>0.9832534961815145</v>
+        <v>0.9790864123038654</v>
       </c>
       <c r="P10">
-        <v>0.9832534961815145</v>
+        <v>0.9790864123038654</v>
       </c>
       <c r="Q10">
-        <v>13.4035410819391</v>
+        <v>19.25101735224311</v>
       </c>
       <c r="R10">
-        <v>13.4035410819391</v>
+        <v>173.259156170188</v>
       </c>
       <c r="S10">
-        <v>0.00224535836028174</v>
+        <v>0.002565987323455136</v>
       </c>
       <c r="T10">
-        <v>0.00224535836028174</v>
+        <v>0.002565987323455136</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.0896798937788435</v>
+        <v>0.1189986666666667</v>
       </c>
       <c r="H11">
-        <v>0.0896798937788435</v>
+        <v>0.356996</v>
       </c>
       <c r="I11">
-        <v>0.00228360068792192</v>
+        <v>0.002620797603979787</v>
       </c>
       <c r="J11">
-        <v>0.00228360068792192</v>
+        <v>0.002620797603979787</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.626353034851524</v>
+        <v>0.67894</v>
       </c>
       <c r="N11">
-        <v>0.626353034851524</v>
+        <v>2.03682</v>
       </c>
       <c r="O11">
-        <v>0.004120597747081131</v>
+        <v>0.004109044356199978</v>
       </c>
       <c r="P11">
-        <v>0.004120597747081131</v>
+        <v>0.004109044356199979</v>
       </c>
       <c r="Q11">
-        <v>0.05617127363354094</v>
+        <v>0.08079295474666666</v>
       </c>
       <c r="R11">
-        <v>0.05617127363354094</v>
+        <v>0.72713659272</v>
       </c>
       <c r="S11">
-        <v>9.409799849883984E-06</v>
+        <v>1.076897360337557E-05</v>
       </c>
       <c r="T11">
-        <v>9.409799849883984E-06</v>
+        <v>1.076897360337557E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.0896798937788435</v>
+        <v>0.1189986666666667</v>
       </c>
       <c r="H12">
-        <v>0.0896798937788435</v>
+        <v>0.356996</v>
       </c>
       <c r="I12">
-        <v>0.00228360068792192</v>
+        <v>0.002620797603979787</v>
       </c>
       <c r="J12">
-        <v>0.00228360068792192</v>
+        <v>0.002620797603979787</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.46760260914225</v>
+        <v>1.763201333333333</v>
       </c>
       <c r="N12">
-        <v>1.46760260914225</v>
+        <v>5.289604</v>
       </c>
       <c r="O12">
-        <v>0.009654938458589045</v>
+        <v>0.01067115280816804</v>
       </c>
       <c r="P12">
-        <v>0.009654938458589045</v>
+        <v>0.01067115280816804</v>
       </c>
       <c r="Q12">
-        <v>0.1316144460974306</v>
+        <v>0.2098186077315555</v>
       </c>
       <c r="R12">
-        <v>0.1316144460974306</v>
+        <v>1.888367469584</v>
       </c>
       <c r="S12">
-        <v>2.204802410587775E-05</v>
+        <v>2.796693171134897E-05</v>
       </c>
       <c r="T12">
-        <v>2.204802410587775E-05</v>
+        <v>2.796693171134898E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.0896798937788435</v>
+        <v>0.1189986666666667</v>
       </c>
       <c r="H13">
-        <v>0.0896798937788435</v>
+        <v>0.356996</v>
       </c>
       <c r="I13">
-        <v>0.00228360068792192</v>
+        <v>0.002620797603979787</v>
       </c>
       <c r="J13">
-        <v>0.00228360068792192</v>
+        <v>0.002620797603979787</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.451603067067319</v>
+        <v>1.013424</v>
       </c>
       <c r="N13">
-        <v>0.451603067067319</v>
+        <v>3.040272</v>
       </c>
       <c r="O13">
-        <v>0.002970967612815416</v>
+        <v>0.006133390531766587</v>
       </c>
       <c r="P13">
-        <v>0.002970967612815416</v>
+        <v>0.006133390531766588</v>
       </c>
       <c r="Q13">
-        <v>0.04049971508479711</v>
+        <v>0.120596104768</v>
       </c>
       <c r="R13">
-        <v>0.04049971508479711</v>
+        <v>1.085364942912</v>
       </c>
       <c r="S13">
-        <v>6.784503684419029E-06</v>
+        <v>1.607437520992618E-05</v>
       </c>
       <c r="T13">
-        <v>6.784503684419029E-06</v>
+        <v>1.607437520992618E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>15.6085129250898</v>
+        <v>15.943029</v>
       </c>
       <c r="H14">
-        <v>15.6085129250898</v>
+        <v>47.829087</v>
       </c>
       <c r="I14">
-        <v>0.3974537585991429</v>
+        <v>0.3511253812651704</v>
       </c>
       <c r="J14">
-        <v>0.3974537585991429</v>
+        <v>0.3511253812651704</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>149.459823346726</v>
+        <v>161.7750676666667</v>
       </c>
       <c r="N14">
-        <v>149.459823346726</v>
+        <v>485.325203</v>
       </c>
       <c r="O14">
-        <v>0.9832534961815145</v>
+        <v>0.9790864123038654</v>
       </c>
       <c r="P14">
-        <v>0.9832534961815145</v>
+        <v>0.9790864123038654</v>
       </c>
       <c r="Q14">
-        <v>2332.845584489011</v>
+        <v>2579.184595286629</v>
       </c>
       <c r="R14">
-        <v>2332.845584489011</v>
+        <v>23212.66135757966</v>
       </c>
       <c r="S14">
-        <v>0.390797797713091</v>
+        <v>0.3437820898117426</v>
       </c>
       <c r="T14">
-        <v>0.390797797713091</v>
+        <v>0.3437820898117426</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>15.6085129250898</v>
+        <v>15.943029</v>
       </c>
       <c r="H15">
-        <v>15.6085129250898</v>
+        <v>47.829087</v>
       </c>
       <c r="I15">
-        <v>0.3974537585991429</v>
+        <v>0.3511253812651704</v>
       </c>
       <c r="J15">
-        <v>0.3974537585991429</v>
+        <v>0.3511253812651704</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.626353034851524</v>
+        <v>0.67894</v>
       </c>
       <c r="N15">
-        <v>0.626353034851524</v>
+        <v>2.03682</v>
       </c>
       <c r="O15">
-        <v>0.004120597747081131</v>
+        <v>0.004109044356199978</v>
       </c>
       <c r="P15">
-        <v>0.004120597747081131</v>
+        <v>0.004109044356199979</v>
       </c>
       <c r="Q15">
-        <v>9.776439440149234</v>
+        <v>10.82436010926</v>
       </c>
       <c r="R15">
-        <v>9.776439440149234</v>
+        <v>97.41924098334</v>
       </c>
       <c r="S15">
-        <v>0.001637747062252556</v>
+        <v>0.001442789766206214</v>
       </c>
       <c r="T15">
-        <v>0.001637747062252556</v>
+        <v>0.001442789766206214</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>15.6085129250898</v>
+        <v>15.943029</v>
       </c>
       <c r="H16">
-        <v>15.6085129250898</v>
+        <v>47.829087</v>
       </c>
       <c r="I16">
-        <v>0.3974537585991429</v>
+        <v>0.3511253812651704</v>
       </c>
       <c r="J16">
-        <v>0.3974537585991429</v>
+        <v>0.3511253812651704</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.46760260914225</v>
+        <v>1.763201333333333</v>
       </c>
       <c r="N16">
-        <v>1.46760260914225</v>
+        <v>5.289604</v>
       </c>
       <c r="O16">
-        <v>0.009654938458589045</v>
+        <v>0.01067115280816804</v>
       </c>
       <c r="P16">
-        <v>0.009654938458589045</v>
+        <v>0.01067115280816804</v>
       </c>
       <c r="Q16">
-        <v>22.90709429369232</v>
+        <v>28.110769990172</v>
       </c>
       <c r="R16">
-        <v>22.90709429369232</v>
+        <v>252.996929911548</v>
       </c>
       <c r="S16">
-        <v>0.003837391579409632</v>
+        <v>0.003746912598306897</v>
       </c>
       <c r="T16">
-        <v>0.003837391579409632</v>
+        <v>0.003746912598306898</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>15.6085129250898</v>
+        <v>15.943029</v>
       </c>
       <c r="H17">
-        <v>15.6085129250898</v>
+        <v>47.829087</v>
       </c>
       <c r="I17">
-        <v>0.3974537585991429</v>
+        <v>0.3511253812651704</v>
       </c>
       <c r="J17">
-        <v>0.3974537585991429</v>
+        <v>0.3511253812651704</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.451603067067319</v>
+        <v>1.013424</v>
       </c>
       <c r="N17">
-        <v>0.451603067067319</v>
+        <v>3.040272</v>
       </c>
       <c r="O17">
-        <v>0.002970967612815416</v>
+        <v>0.006133390531766587</v>
       </c>
       <c r="P17">
-        <v>0.002970967612815416</v>
+        <v>0.006133390531766588</v>
       </c>
       <c r="Q17">
-        <v>7.048852309330444</v>
+        <v>16.157048221296</v>
       </c>
       <c r="R17">
-        <v>7.048852309330444</v>
+        <v>145.413433991664</v>
       </c>
       <c r="S17">
-        <v>0.00118082224438981</v>
+        <v>0.002153589088914729</v>
       </c>
       <c r="T17">
-        <v>0.00118082224438981</v>
+        <v>0.002153589088914729</v>
       </c>
     </row>
   </sheetData>
